--- a/UWPR/branches/db_chanage/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
+++ b/UWPR/branches/db_chanage/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
@@ -9,45 +9,18 @@
   <sheets>
     <sheet name="Sample Submission" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrations" sheetId="2" r:id="rId2"/>
-    <sheet name="Inclusion or Exclusion List" sheetId="4" r:id="rId3"/>
-    <sheet name="Salt Tolerances" sheetId="7" r:id="rId4"/>
+    <sheet name="Salt Tolerances" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Priska</author>
-  </authors>
-  <commentList>
-    <comment ref="K57" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>= # samples x # replicates</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="242">
   <si>
     <t>UWPR sample submission form for LC-MS/MS analyses:</t>
   </si>
   <si>
-    <t>https://proteomicsresource.washington.edu/pr/pages/login/login.jsp</t>
-  </si>
-  <si>
     <t>Submission Date</t>
   </si>
   <si>
@@ -75,33 +48,18 @@
     <t>Method of Purification</t>
   </si>
   <si>
-    <t>Reduction &amp; Alkylation Chemicals:</t>
-  </si>
-  <si>
     <t>Amino Acids Modified:</t>
   </si>
   <si>
-    <t>Digestion Enzyme:</t>
-  </si>
-  <si>
     <t>Taxonomy (species):</t>
   </si>
   <si>
     <t>Analysis Requested:</t>
   </si>
   <si>
-    <t>If you prefer different beads please provide beads and description</t>
-  </si>
-  <si>
-    <t>Column length please specify (10-30cm):</t>
-  </si>
-  <si>
     <t>Chromatography information:</t>
   </si>
   <si>
-    <t>Analytical Gradient (specify if you prefer different trapping conditions):</t>
-  </si>
-  <si>
     <t>Short</t>
   </si>
   <si>
@@ -111,12 +69,6 @@
     <t>Long</t>
   </si>
   <si>
-    <t>Specify your own:</t>
-  </si>
-  <si>
-    <t>Instrument (select one)</t>
-  </si>
-  <si>
     <t>Scans:</t>
   </si>
   <si>
@@ -144,24 +96,9 @@
     <t>µg/µl</t>
   </si>
   <si>
-    <t>Other know/suspected Modifications:</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping please select: </t>
-  </si>
-  <si>
-    <t>Trap column ID 100 µm, beads Magic C18AQ  5µm  200Å</t>
-  </si>
-  <si>
     <t>Gradient information:</t>
   </si>
   <si>
-    <t>Sample Composition (salts, buffers, pH etc):</t>
-  </si>
-  <si>
     <t>Full scan</t>
   </si>
   <si>
@@ -180,21 +117,12 @@
     <t>Extra long</t>
   </si>
   <si>
-    <t>Peptide Analysis via LC-MS/MS:</t>
-  </si>
-  <si>
     <t>Database Search Information</t>
   </si>
   <si>
     <t xml:space="preserve">Database search performed by UWPR? </t>
   </si>
   <si>
-    <t>If desired, select up to three modifications below (normally include oxidation (M))</t>
-  </si>
-  <si>
-    <t>Custom modification request:</t>
-  </si>
-  <si>
     <t>salt tolerances</t>
   </si>
   <si>
@@ -258,57 +186,13 @@
     <t>Denaturants (e.g. urea)</t>
   </si>
   <si>
-    <t>Quant. details (e.g. 4 plex, delta mass etc)</t>
-  </si>
-  <si>
     <t>aa</t>
   </si>
   <si>
-    <t>mass (mono/average?)</t>
-  </si>
-  <si>
-    <t>Please do not hesitate to contact us anytime to discuss any aspects of your project, our doors are always open!</t>
-  </si>
-  <si>
     <t>http://masspec.scripps.edu/services/proteomics/images/saltbuffer.pdf</t>
   </si>
   <si>
-    <t>Radioactive samples are not accepted.</t>
-  </si>
-  <si>
-    <t>Invitrogen Silver Quest</t>
-  </si>
-  <si>
-    <t>Database search includes SEQUEST search, and Peptide/Protein profit analysis.</t>
-  </si>
-  <si>
     <t>Mass Spec Information:</t>
-  </si>
-  <si>
-    <r>
-      <t>samples unclaimed within two weeks of analysis will be discarded, sample storage at -20</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
   </si>
   <si>
     <t>Before submitting any samples:</t>
@@ -845,9 +729,6 @@
     <t>This table for Salt Tolaraces is originally from the Scripps website, but we are adding new concentrations as they become available.:</t>
   </si>
   <si>
-    <t>http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_Peptide_Fractionation_and_Cleanup.pdf</t>
-  </si>
-  <si>
     <t>In-gel-digest samples</t>
   </si>
   <si>
@@ -857,9 +738,6 @@
     <t xml:space="preserve">We recommend gels be stained with either Commassie Blue or Sypro Ruby. These produce the best results. Stains with colloidal coomassie G-250 generally produce “better stains”, most common commassie blue stains are capatible with mass spectrometry. Silver stained gels generally produce less robust results because they modify the proteins and crosslink the peptides to the gels. If you need to use silver stains, they must be mass spec compatible. Most commercial suppliers will indicate this on their product insert. </t>
   </si>
   <si>
-    <t>Samples can be submitted in solution (min 10-20 µL volume). Avoid any detergents and unnecessary sample buffers. Buffers such as 25 mM Tris or Ammonium Bicarbonate are acceptable. For a comprehensive list of buffers and salts compatible with mass spectrometry, please see the Salt Tolerance Table. A Bradford assay (or similar) should be done to estimate the amount of protein in solution before submission and the amount indicated on the form.  Ideally, we would like several hundred femtomoles to 1 pmol of protein for identification. If you need to clean up your sample, you can find some tips on our website:</t>
-  </si>
-  <si>
     <t>Recommended concentrations</t>
   </si>
   <si>
@@ -875,9 +753,6 @@
     <t>Start with min of one picomole of protein (in gel)</t>
   </si>
   <si>
-    <t>Sources for contamination</t>
-  </si>
-  <si>
     <t>acids contaminated with plastic from pipett tips</t>
   </si>
   <si>
@@ -893,45 +768,15 @@
     <t>There are many protocols out there, including on our website.</t>
   </si>
   <si>
-    <t>http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_In_Gel_Digest.pdf</t>
-  </si>
-  <si>
-    <t>m/z</t>
-  </si>
-  <si>
-    <t>mono</t>
-  </si>
-  <si>
-    <t>avrg</t>
-  </si>
-  <si>
-    <t>peptide/compound</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
     <t>Create a project and submit billing information online and make sure you select “Mass Spec. analysis by UWPR personnel?”:</t>
   </si>
   <si>
-    <t>Trap column length please specify (2-4cm):</t>
-  </si>
-  <si>
-    <t>Analytical column ID 75 µm, beads Magic C18AQ  5µm  100Å</t>
-  </si>
-  <si>
-    <t>Sample label (as appears on vials):</t>
-  </si>
-  <si>
     <t>Injection volume per LC-MS run</t>
   </si>
   <si>
     <t>µl</t>
   </si>
   <si>
-    <t>rage 1-9 µl</t>
-  </si>
-  <si>
     <t>If you submitted more than one budget/PO number please specify which one should to be used. You can use up to two budget numbers, please specify the percentage for each number.</t>
   </si>
   <si>
@@ -941,18 +786,9 @@
     <t>PO total amount</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>total time [min]</t>
   </si>
   <si>
-    <t>total [hrs]</t>
-  </si>
-  <si>
     <t>blanks</t>
   </si>
   <si>
@@ -960,12 +796,6 @@
   </si>
   <si>
     <t>Number of samples:</t>
-  </si>
-  <si>
-    <t>Number of replicate LC-MS analyses:</t>
-  </si>
-  <si>
-    <t>Then complete this form and upload it to your project, email priska@uw.edu to coordinate a time to drop off your samples.</t>
   </si>
   <si>
     <r>
@@ -1017,70 +847,113 @@
     </r>
   </si>
   <si>
-    <t>Trapping:     Default trapping is 2% B / 98% A for 10 min at 2.5µl/min</t>
-  </si>
-  <si>
-    <t>specify if you prefer different trapping conditions</t>
-  </si>
-  <si>
-    <t>please specify how many blanks, min run time per blank is 40 min</t>
-  </si>
-  <si>
-    <t>min 1 QC required</t>
-  </si>
-  <si>
-    <t>please specify how many QC (AngioNeuro std) runs, min is 1, analysis time is 60 min per QC</t>
-  </si>
-  <si>
     <t>QC (quality control)</t>
   </si>
   <si>
-    <t>hrs minimum, see below how to calculate the time you need</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Note there is a minimum 2 hr setup</t>
-  </si>
-  <si>
-    <t>on QE and Fusion 0.1-0.5 µg on column per injection</t>
-  </si>
-  <si>
     <t>Injection volume 1-5 µl is ideal, up to 8µl max</t>
   </si>
   <si>
-    <t>For complex mixtures 0.5µg up to 1- 2 µg on column  per injection on LTQ-Orbitraps</t>
-  </si>
-  <si>
     <t>Avoid Contaminations (pdf)</t>
   </si>
   <si>
+    <t>Number of blanks:</t>
+  </si>
+  <si>
+    <t>Number of QC (standards):</t>
+  </si>
+  <si>
+    <t>Modifications:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If desired, select modifications below </t>
+  </si>
+  <si>
+    <t>mass (monoisotopic)</t>
+  </si>
+  <si>
+    <t>describe labels (10 plex, Lys label… ):</t>
+  </si>
+  <si>
+    <t>Specify amino acid(s) and mass:</t>
+  </si>
+  <si>
+    <t>Avoid contaminations:</t>
+  </si>
+  <si>
+    <t>no salts!</t>
+  </si>
+  <si>
+    <t>no detergents!</t>
+  </si>
+  <si>
+    <t>Salt tolerances:</t>
+  </si>
+  <si>
+    <t>Detergent tolerances:</t>
+  </si>
+  <si>
+    <t>Other ources for contamination</t>
+  </si>
+  <si>
+    <t>Contaminations compete with your peptides of interest!</t>
+  </si>
+  <si>
+    <t>Contaminants bind to your column, preventing peptides to bind</t>
+  </si>
+  <si>
+    <t>Contaminants will be analyzed by the mass spec, the more MS2 scans are wasted on contaminants, the fewer MS2 scans are available to identify your peptides</t>
+  </si>
+  <si>
+    <t>Contaminants can clog columns costing you instrument time.</t>
+  </si>
+  <si>
+    <t>Contaminants can reduce instrument sensitivity, we will charge you for instrument cleaning minimum of 2 days or 48hrs.</t>
+  </si>
+  <si>
+    <t>Lipids:</t>
+  </si>
+  <si>
+    <t>no lipids!</t>
+  </si>
+  <si>
+    <t>Number of replicate LC-MS analyses per sample:</t>
+  </si>
+  <si>
+    <t>Analytical Gradients:</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>incl. 2 hrs minimum setup</t>
+  </si>
+  <si>
+    <t>Est. total hrs:</t>
+  </si>
+  <si>
+    <t>see below how to calculate the time you need</t>
+  </si>
+  <si>
+    <t>Sample label (as appears on vials) in the order you want them analyzed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. sample1, blank, cntrl, QC, …. </t>
+  </si>
+  <si>
+    <t>range 1-8 µl</t>
+  </si>
+  <si>
+    <t>QC (AngioNeuro std) runs, analysis time is 75 min per QC</t>
+  </si>
+  <si>
+    <t>min run time per blank is 40 min</t>
+  </si>
+  <si>
+    <t>Medium (default)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 60 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Long:              5 - 30% B in 120 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1099,12 +972,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 170 mins per LC-MS run</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 120 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Short:            5 - 30% B in 60 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> total analysis time = 110 mins per LC-MS run</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medium:      5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1123,12 +1019,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 140 mins per LC-MS run</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 180 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Extra long:    5 - 30% B in 180 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1147,20 +1043,121 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 230 mins per LC-MS run</t>
     </r>
   </si>
   <si>
-    <t>Number of blanks:</t>
-  </si>
-  <si>
-    <t>Number of QC (standards):</t>
-  </si>
-  <si>
-    <t>single peptide 0.1-0.5 pmol  on column for QE and Fusion and 0.5-2pmol on column for Orbitrap XL</t>
-  </si>
-  <si>
-    <t>complex peptide mixture: 0.1-0.5µg on column for QE or Fusion and 1-2 µg on column for Orbitrap XL</t>
+    <t>Enter the number of samples, replicate analyses per sample, blanks and QC's to calculate the time needed for the analysis:</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/index.php</t>
+  </si>
+  <si>
+    <t>Then complete this form and upload it to your project online, email priska@uw.edu to coordinate a time to drop off your samples.</t>
+  </si>
+  <si>
+    <t>Radioactive samples are not allowed!</t>
+  </si>
+  <si>
+    <t>Please contact us to discuss your project.</t>
+  </si>
+  <si>
+    <t>Analytical column ID 75 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,    length 35 cm</t>
+  </si>
+  <si>
+    <t>Trap column ID 100 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,             length 3 cm</t>
+  </si>
+  <si>
+    <t>cm (specify custom length if desired)</t>
+  </si>
+  <si>
+    <t>Gradient default (Medium):      5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping à total analysis time = 140 mins per LC-MS run</t>
+  </si>
+  <si>
+    <t>Trapping default:     2% B / 98% A for 10 min at 2 µl/min</t>
+  </si>
+  <si>
+    <t>Custom specify your own:</t>
+  </si>
+  <si>
+    <t>Database search includes Comet search, and Peptide/Protein profit analysis, please discuss details with Jimmy engj@uw.edu</t>
+  </si>
+  <si>
+    <t>Once we receive your samples we schedule the instrument time needed for the analysis. Note: cancellation time is 48hrs, 10%  (of total cost) sign up fee is non-refundable.</t>
+  </si>
+  <si>
+    <t>Sample Composition (salts, buffers, pH etc.):</t>
+  </si>
+  <si>
+    <t>Modification detail (e.g. 10-plex etc.):</t>
+  </si>
+  <si>
+    <r>
+      <t>samples unclaimed within two weeks of analysis will be discarded, sample storage at -20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>Reduction &amp; Alkylation:</t>
+  </si>
+  <si>
+    <t>Specify different gradient and check the checkbox below:</t>
+  </si>
+  <si>
+    <t>if left blank we use UWPR default method settings</t>
+  </si>
+  <si>
+    <t>Digestion Enzyme (other than Trypsin):</t>
+  </si>
+  <si>
+    <t>complex peptide mixture: 0.1-0.5µg on column for QE, Fusion/Lumos and 1-2 µg on column for Orbitrap XL</t>
+  </si>
+  <si>
+    <t>single peptide 0.1-0.5 pmol  on column for QE, Fusion/Lumos and 0.5-2pmol on column for Orbitrap XL</t>
+  </si>
+  <si>
+    <t>For complex mixtures up to 0.5µg (QE/Fusion/Lumos) or up to 1- 2 µg (OT-XL) on column  per injection</t>
+  </si>
+  <si>
+    <t>General Advice:</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/protocols03/</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/protocols03/ingeldigestion.php</t>
+  </si>
+  <si>
+    <t>https://tools.thermofisher.com/content/sfs/brochures/TR0050-Stained-gels-for-MS.pdf</t>
+  </si>
+  <si>
+    <t>Samples can be submitted in solution (min 10-20 µL volume). Avoid any detergents and unnecessary sample buffers. For a comprehensive list of buffers and salts compatible with mass spectrometry, please see the Salt Tolerance Table. A BCA or Bradford assay (or similar) should be done to estimate the amount of protein in solution before submission and the amount indicated on the form.  Ideally, we would like several hundred femtomoles to 1 pmol of protein for identification. If you need to clean up your sample, you can find some tips on our website:</t>
+  </si>
+  <si>
+    <t>e.g.</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1168,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,13 +1225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1243,14 +1233,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,12 +1316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1364,8 +1340,39 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1391,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1440,25 +1447,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -1472,7 +1483,162 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -1482,9 +1648,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1492,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,9 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1528,15 +1702,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1548,17 +1715,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1573,22 +1737,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1602,88 +1766,194 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,27 +1966,19 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,9 +1988,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1998,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1761,6 +2072,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
@@ -1877,6 +2189,26 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
@@ -1928,7 +2260,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2762250" y="6696075"/>
+              <a:off x="3238500" y="6600825"/>
               <a:ext cx="1371600" cy="209550"/>
               <a:chOff x="2266949" y="4686300"/>
               <a:chExt cx="1685926" cy="209550"/>
@@ -2024,7 +2356,7 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
@@ -2033,132 +2365,16 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1371600</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="3" name="Group 2"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="2762250" y="6991350"/>
-              <a:ext cx="1371600" cy="209550"/>
-              <a:chOff x="4190994" y="5095875"/>
-              <a:chExt cx="1685929" cy="209550"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s1027"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4190994" y="5095875"/>
-                <a:ext cx="781050" cy="209550"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>Solid</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s1028"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5095873" y="5095875"/>
-                <a:ext cx="781050" cy="209550"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>Liquid</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2189,7 +2405,7 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>yes</a:t>
+                <a:t>Dry/Solid</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2205,21 +2421,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2250,7 +2466,7 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>no</a:t>
+                <a:t>Liquid</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2266,13 +2482,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2326,14 +2542,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:colOff>1238250</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2386,15 +2602,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2447,15 +2663,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1381125</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>819150</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2510,13 +2726,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2571,13 +2787,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2632,13 +2848,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2693,13 +2909,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2754,13 +2970,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2815,13 +3031,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>847725</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2876,13 +3092,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2935,179 +3151,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>76</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3162,13 +3214,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>76</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3221,15 +3273,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:colOff>895350</xdr:colOff>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3284,13 +3336,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1009650</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3345,13 +3397,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>809625</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1381125</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3405,131 +3457,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>peptide/protein identification</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>peptide/protein quantification</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
           <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -3651,7 +3581,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
@@ -3712,11 +3642,11 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>923925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3726,6 +3656,250 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>other (please specify below)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>TSQ Access</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Lumos</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>phosphorylation</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3770,23 +3944,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
+                  <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3817,7 +3991,456 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>TSQ Access</a:t>
+                <a:t>iTRAQ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1171575</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>TMT</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1895475</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>SILAC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1419225</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1362075</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>no</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4118,1003 +4741,1084 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H1" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="61">
-        <v>41731</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="46">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>31</v>
+    <row r="3" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>77</v>
+    <row r="4" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>209</v>
+    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="F13" s="1" t="s">
+    <row r="11" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+    </row>
+    <row r="15" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-    </row>
-    <row r="14" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+    </row>
+    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="F14" s="1" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="F15" s="1" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="J16" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="F17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="49"/>
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="J15" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-    </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="F16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="64">
-        <f>ROUNDUP(M65,0)</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="63"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="50"/>
-      <c r="G22" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="66">
-        <f>D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="50"/>
-      <c r="G23" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="66">
-        <f>D23+H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="70">
-        <f>SUM(I22:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13"/>
+      <c r="E26" s="95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="J29" s="63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+    </row>
+    <row r="32" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+    </row>
+    <row r="33" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-    </row>
-    <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-    </row>
-    <row r="33" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="96"/>
+      <c r="H40" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-    </row>
-    <row r="42" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-    </row>
-    <row r="46" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+    </row>
+    <row r="47" spans="2:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+    </row>
+    <row r="49" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="59">
+        <v>1</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="G50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="59">
+        <v>1</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="59">
+        <v>0</v>
+      </c>
+      <c r="E51" s="44"/>
+      <c r="G51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="59">
+        <v>0</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+    </row>
+    <row r="52" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="91"/>
+      <c r="F53" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-    </row>
-    <row r="50" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="I53" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="63">
+        <v>110</v>
+      </c>
+      <c r="D54" s="63">
+        <f>C$50*H$50</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="87"/>
+      <c r="F54" s="64">
+        <f>ROUNDUP(((C54*D54)/60),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="63">
+        <v>140</v>
+      </c>
+      <c r="D55" s="63">
+        <f t="shared" ref="D55:D58" si="0">C$50*H$50</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="88"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="85">
+        <f>ROUNDUP(((C55*D55)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="63">
+        <v>170</v>
+      </c>
+      <c r="D56" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="88"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="64">
+        <f>ROUNDUP(((C56*D56)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="63">
+        <v>230</v>
+      </c>
+      <c r="D57" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="88"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="64">
+        <f>ROUNDUP(((C57*D57)/60),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J57" s="66"/>
+      <c r="K57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="88"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="67">
+        <f>ROUNDUP(((C58*D58)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+    </row>
+    <row r="59" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="63">
+        <v>75</v>
+      </c>
+      <c r="D59" s="63">
+        <f>H51</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="88"/>
+      <c r="F59" s="64">
+        <f t="shared" ref="F59:J60" si="1">ROUNDUP((($C59*$D59)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="68">
+        <v>40</v>
+      </c>
+      <c r="D60" s="68">
+        <f>C51</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="89"/>
+      <c r="F60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="82">
+        <f>SUM(F54:F60)+2</f>
+        <v>4</v>
+      </c>
+      <c r="G61" s="73">
+        <f t="shared" ref="G61:J61" si="2">SUM(G54:G60)+2</f>
+        <v>5</v>
+      </c>
+      <c r="H61" s="82">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I61" s="82">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J61" s="83">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="39"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="48"/>
+    </row>
+    <row r="63" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="39"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="48"/>
+    </row>
+    <row r="64" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-    </row>
-    <row r="57" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="I57" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="J57" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="K57" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="L57" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="M57" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I58" s="54">
-        <v>110</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K58" s="55"/>
-      <c r="L58" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M58" s="58">
-        <f>(I58*K58)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I59" s="54">
-        <v>140</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M59" s="58">
-        <f t="shared" ref="M59:M61" si="0">(I59*K59)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I60" s="54">
-        <v>160</v>
-      </c>
-      <c r="J60" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M60" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I61" s="54">
-        <v>230</v>
-      </c>
-      <c r="J61" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M61" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M62" s="58">
-        <f t="shared" ref="M62" si="1">(I62*K62)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="57">
-        <v>70</v>
-      </c>
-      <c r="J63" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K63" s="57">
-        <v>1</v>
-      </c>
-      <c r="L63" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M63" s="58">
-        <f t="shared" ref="M63:M64" si="2">(I63*K63)/60</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="57">
-        <v>40</v>
-      </c>
-      <c r="J64" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K64" s="57"/>
-      <c r="L64" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M64" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="59">
-        <f>SUM(M58:M64)+1</f>
-        <v>2.166666666666667</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>24</v>
+    <row r="67" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="J68" s="75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="L69" s="75"/>
+    </row>
+    <row r="70" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="L70" s="75"/>
+    </row>
+    <row r="71" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+    </row>
+    <row r="72" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="C72" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-    </row>
-    <row r="74" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+    </row>
+    <row r="78" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="73">
-        <f>D37</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-    </row>
-    <row r="80" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D41:H41"/>
+  <mergeCells count="25">
+    <mergeCell ref="D77:H77"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D24:I25"/>
+    <mergeCell ref="B24:C25"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
-  <conditionalFormatting sqref="M58:M65">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="F54 G55 H56 I57 J58 G61:J63 I51 F59:F63">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G59:J60">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:H46">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(E46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:H48">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(E48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G41">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O58:R58">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(O58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:E68 D69 D70:E70 D71:H71 G68 G70">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:H36">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5123,10 +5827,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="72" man="1"/>
+    <brk id="12" max="72" man="1"/>
   </colBreaks>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -5223,19 +5927,107 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+            <control shapeId="1033" r:id="rId9" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>857250</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:colOff>1238250</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId11" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>704850</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId12" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId13" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>990600</xdr:colOff>
+                    <xdr:row>67</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5245,19 +6037,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+            <control shapeId="1040" r:id="rId14" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1066800</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>67</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5267,151 +6059,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId11" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId12" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId14" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1381125</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>819150</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId15" name="Check Box 15">
+            <control shapeId="1043" r:id="rId15" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>990600</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId16" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId17" name="Check Box 19">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>70</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>990600</xdr:colOff>
-                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5421,19 +6081,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId18" name="Check Box 20">
+            <control shapeId="1044" r:id="rId16" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5443,19 +6103,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId19" name="Check Box 23">
+            <control shapeId="1047" r:id="rId17" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5465,19 +6125,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId20" name="Check Box 24">
+            <control shapeId="1048" r:id="rId18" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>847725</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5487,19 +6147,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId21" name="Check Box 25">
+            <control shapeId="1049" r:id="rId19" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5509,107 +6169,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId22" name="Check Box 29">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId23" name="Check Box 30">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId24" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId25" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId26" name="Check Box 33">
+            <control shapeId="1057" r:id="rId20" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>76</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>77</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5619,19 +6191,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId27" name="Check Box 34">
+            <control shapeId="1058" r:id="rId21" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>76</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>77</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5641,19 +6213,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId28" name="Check Box 35">
+            <control shapeId="1059" r:id="rId22" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>914400</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:colOff>895350</xdr:colOff>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5663,19 +6235,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId29" name="Check Box 36">
+            <control shapeId="1060" r:id="rId23" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5685,19 +6257,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId30" name="Check Box 37">
+            <control shapeId="1061" r:id="rId24" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>809625</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1381125</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5707,58 +6279,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId31" name="Check Box 38">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId32" name="Check Box 39">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId33" name="Check Box 40">
+            <control shapeId="1064" r:id="rId25" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1133475</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -5773,7 +6301,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId34" name="Check Box 41">
+            <control shapeId="1065" r:id="rId26" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5795,14 +6323,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId35" name="Check Box 43">
+            <control shapeId="1067" r:id="rId27" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
@@ -5817,18 +6345,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId36" name="Check Box 44">
+            <control shapeId="1068" r:id="rId28" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>923925</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
@@ -5839,20 +6367,306 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId37" name="Check Box 47">
+            <control shapeId="1071" r:id="rId29" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId30" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId31" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>981075</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId32" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>981075</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId33" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId34" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1171575</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId35" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1257300</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1895475</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId36" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId37" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId38" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>1076325</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId39" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1419225</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId40" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId41" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId42" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1362075</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5867,324 +6681,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="29.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="43" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="4" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="13" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+    </row>
+    <row r="15" spans="1:12" s="25" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+    </row>
+    <row r="16" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+    </row>
+    <row r="17" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="36" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+    </row>
+    <row r="20" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="13" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:12" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-    </row>
-    <row r="16" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-    </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-    </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="D34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6192,59 +7055,25 @@
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B16:L16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="http://proteomics.unc.edu/Silverquest_Protocol.pdf"/>
-    <hyperlink ref="B10:J10" r:id="rId2" display="http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_Peptide_Fractionation_and_Cleanup.pdf"/>
-    <hyperlink ref="A23" location="'Salt Tolerances'!A1" display="salt tolerances"/>
-    <hyperlink ref="A24" location="'Salt Tolerances'!A1" display="detergent tolerances"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
-    <hyperlink ref="A27" r:id="rId5" display="http://www.proteomicsresource.washington.edu/docs/protocols05/Avoid Contaminations.pdf"/>
+    <hyperlink ref="B10:J10" r:id="rId1" display="http://www.proteomicsresource.washington.edu/protocols03/"/>
+    <hyperlink ref="C20" r:id="rId2"/>
+    <hyperlink ref="A34" r:id="rId3" display="http://www.proteomicsresource.washington.edu/docs/protocols05/Avoid Contaminations.pdf"/>
+    <hyperlink ref="D29" location="'Salt Tolerances'!A1" display="salt tolerances"/>
+    <hyperlink ref="D30" location="'Salt Tolerances'!A1" display="detergent tolerances"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -6260,1068 +7089,1068 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>168</v>
+      <c r="A1" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>76</v>
+      <c r="A2" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="86"/>
+      <c r="A5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="30">
+        <v>163</v>
+      </c>
+      <c r="C8" s="31">
+        <v>50</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="32">
+        <v>615</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="32">
+        <v>284</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="32">
+        <v>154</v>
+      </c>
+      <c r="C12" s="33">
+        <v>500</v>
+      </c>
+      <c r="D12" s="33">
+        <v>7.7</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="32">
+        <v>92</v>
+      </c>
+      <c r="C13" s="33">
+        <v>130</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="30">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31">
+        <v>250</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="30">
+        <v>238</v>
+      </c>
+      <c r="C15" s="31">
+        <v>100</v>
+      </c>
+      <c r="D15" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="32">
+        <v>229</v>
+      </c>
+      <c r="C17" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="32">
+        <v>264</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3.8</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="32">
+        <v>58</v>
+      </c>
+      <c r="C19" s="33">
+        <v>50</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="32">
+        <v>120</v>
+      </c>
+      <c r="C20" s="33">
+        <v>10</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="32">
+        <v>10</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="32">
+        <v>348</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2.9</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="32">
+        <v>511</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="32">
+        <v>524</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="32">
+        <v>79</v>
+      </c>
+      <c r="C24" s="33">
+        <v>50</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="32">
+        <v>292</v>
+      </c>
+      <c r="C25" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="32">
+        <v>468</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="34">
-        <v>163</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B27" s="32">
+        <v>603</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="32">
+        <v>308</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="32">
+        <v>288</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="D31" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="32">
+        <v>82</v>
+      </c>
+      <c r="C32" s="33">
         <v>50</v>
       </c>
-      <c r="D8" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="D32" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="32">
+        <v>65</v>
+      </c>
+      <c r="C33" s="33">
+        <v>15</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="32">
+        <v>431</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="32">
+        <v>538</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="32">
+        <v>114</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="32">
+        <v>583</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="30">
+        <v>121</v>
+      </c>
+      <c r="C38" s="31">
+        <v>100</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="32">
+        <v>628</v>
+      </c>
+      <c r="C39" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="32">
+        <v>1228</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="36">
-        <v>615</v>
-      </c>
-      <c r="C10" s="37">
-        <v>0</v>
-      </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
-        <v>1.6</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="B41" s="30">
+        <v>60</v>
+      </c>
+      <c r="C41" s="31">
+        <v>500</v>
+      </c>
+      <c r="D41" s="31">
+        <v>3</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="32">
+        <v>392</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="D42" s="33">
         <v>0.1</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="36">
-        <v>284</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="36">
-        <v>154</v>
-      </c>
-      <c r="C12" s="37">
-        <v>500</v>
-      </c>
-      <c r="D12" s="37">
-        <v>7.7</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="36">
-        <v>92</v>
-      </c>
-      <c r="C13" s="37">
-        <v>130</v>
-      </c>
-      <c r="D13" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="E42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="34">
-        <v>96</v>
-      </c>
-      <c r="C14" s="35">
-        <v>250</v>
-      </c>
-      <c r="D14" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="34">
-        <v>238</v>
-      </c>
-      <c r="C15" s="35">
-        <v>100</v>
-      </c>
-      <c r="D15" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="36">
-        <v>229</v>
-      </c>
-      <c r="C17" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D17" s="37">
-        <v>1</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="36">
-        <v>264</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="36">
-        <v>58</v>
-      </c>
-      <c r="C19" s="37">
-        <v>50</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="36">
-        <v>120</v>
-      </c>
-      <c r="C20" s="37">
-        <v>10</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.12</v>
-      </c>
-      <c r="E20" s="36">
-        <v>10</v>
-      </c>
-      <c r="F20" s="36">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="36">
-        <v>348</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="36">
-        <v>511</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="36">
-        <v>2</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="36">
-        <v>524</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="36">
-        <v>1.9</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="36">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="37">
-        <v>50</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="36">
-        <v>292</v>
-      </c>
-      <c r="C25" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="D25" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="36">
-        <v>3.4</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="36">
-        <v>468</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="36">
-        <v>603</v>
-      </c>
-      <c r="C27" s="37">
-        <v>1.7</v>
-      </c>
-      <c r="D27" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="36">
-        <v>308</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="36">
-        <v>3.2</v>
-      </c>
-      <c r="F28" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="36">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="36">
-        <v>2000</v>
-      </c>
-      <c r="C30" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="36">
-        <v>288</v>
-      </c>
-      <c r="C31" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="D31" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="E31" s="36">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F31" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="36">
-        <v>82</v>
-      </c>
-      <c r="C32" s="37">
-        <v>50</v>
-      </c>
-      <c r="D32" s="37">
-        <v>0.41</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="36">
-        <v>65</v>
-      </c>
-      <c r="C33" s="37">
-        <v>15</v>
-      </c>
-      <c r="D33" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E33" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="F33" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="36">
-        <v>431</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F34" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="36">
-        <v>538</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="36">
-        <v>114</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F36" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="36">
-        <v>583</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="34">
-        <v>121</v>
-      </c>
-      <c r="C38" s="35">
-        <v>100</v>
-      </c>
-      <c r="D38" s="35">
-        <v>1</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="36">
-        <v>628</v>
-      </c>
-      <c r="C39" s="37">
-        <v>1.6</v>
-      </c>
-      <c r="D39" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="36">
-        <v>1228</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="34">
-        <v>60</v>
-      </c>
-      <c r="C41" s="35">
-        <v>500</v>
-      </c>
-      <c r="D41" s="35">
-        <v>3</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="36">
-        <v>392</v>
-      </c>
-      <c r="C42" s="37">
-        <v>2.6</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
